--- a/biology/Médecine/Muscle_court_fléchisseur_du_petit_doigt/Muscle_court_fléchisseur_du_petit_doigt.xlsx
+++ b/biology/Médecine/Muscle_court_fléchisseur_du_petit_doigt/Muscle_court_fléchisseur_du_petit_doigt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_court_fl%C3%A9chisseur_du_petit_doigt</t>
+          <t>Muscle_court_fléchisseur_du_petit_doigt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle court fléchisseur du petit doigt est un muscle de la loge hypothénar de la main. Il est innervé par le rameau profond du nerf ulnaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_court_fl%C3%A9chisseur_du_petit_doigt</t>
+          <t>Muscle_court_fléchisseur_du_petit_doigt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a une insertion haute sur l'hamulus de l'hamatum et sur le rétinaculum des fléchisseurs. Son ventre est grêle et oblique médialement. Il a une insertion basse sur la base de la 1e phalange du petit doigt (5e doigt), par un tendon commun avec le muscle abducteur du petit doigt de la main.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_court_fl%C3%A9chisseur_du_petit_doigt</t>
+          <t>Muscle_court_fléchisseur_du_petit_doigt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son action est la flexion de l'articulation métacarpo-phalangienne du petit doigt.
 Sur les autres projets Wikimedia :
